--- a/hardware/extension-40_to_PCB_test/extension-cable-all-pos.xlsx
+++ b/hardware/extension-40_to_PCB_test/extension-cable-all-pos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="14400" windowHeight="6020"/>
+    <workbookView activeTab="0" windowWidth="11380" windowHeight="6020"/>
   </bookViews>
   <sheets>
     <sheet name="extension-cable-all-pos.csv" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <selection activeCell="A1" sqref="A1:E1"/>
@@ -154,14 +154,14 @@
     <row r="2" spans="1:5">
       <c r="A2" t="inlineStr">
         <is>
-          <t>J1</t>
+          <t>CKV1</t>
         </is>
       </c>
       <c r="B2" s="3">
-        <v>125.78</v>
+        <v>77.507499999999993</v>
       </c>
       <c r="C2" s="3">
-        <v>-93.370000000000005</v>
+        <v>-76.700000000000003</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -173,17 +173,17 @@
     <row r="3" spans="1:5">
       <c r="A3" t="inlineStr">
         <is>
-          <t>U1</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="B3" s="3">
-        <v>93.489999999999995</v>
+        <v>86.480000000000004</v>
       </c>
       <c r="C3" s="3">
-        <v>-69.319999999999993</v>
+        <v>-84.219999999999999</v>
       </c>
       <c r="D3" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -192,14 +192,14 @@
     <row r="4" spans="1:5">
       <c r="A4" t="inlineStr">
         <is>
-          <t>U2</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="B4" s="3">
-        <v>93.269999999999996</v>
+        <v>86.480000000000004</v>
       </c>
       <c r="C4" s="3">
-        <v>-92.159999999999997</v>
+        <v>-81.292500000000004</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -211,19 +211,912 @@
     <row r="5" spans="1:5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>U3</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="B5" s="3">
-        <v>125.77</v>
+        <v>86.480000000000004</v>
       </c>
       <c r="C5" s="3">
-        <v>-69.349999999999994</v>
+        <v>-78.368750000000006</v>
       </c>
       <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="B6" s="3">
+        <v>86.480000000000004</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-75.444999999999993</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="B7" s="3">
+        <v>86.480000000000004</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-72.521249999999995</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="B8" s="3">
+        <v>86.480000000000004</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-69.597499999999997</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="B9" s="3">
+        <v>86.480000000000004</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-66.673749999999998</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="B10" s="3">
+        <v>86.480000000000004</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-63.75</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="B11" s="3">
+        <v>98.290000000000006</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-86.5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="B12" s="3">
+        <v>98.290000000000006</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-83.25</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="B13" s="3">
+        <v>98.290000000000006</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-80</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="B14" s="3">
+        <v>98.290000000000006</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-76.75</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="B15" s="3">
+        <v>98.290000000000006</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-73.5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>D13</t>
+        </is>
+      </c>
+      <c r="B16" s="3">
+        <v>98.290000000000006</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-70.25</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>D14</t>
+        </is>
+      </c>
+      <c r="B17" s="3">
+        <v>98.290000000000006</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-67</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>D15</t>
+        </is>
+      </c>
+      <c r="B18" s="3">
+        <v>98.290000000000006</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-63.75</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>EP_MODE1</t>
+        </is>
+      </c>
+      <c r="B19" s="3">
+        <v>77.507499999999993</v>
+      </c>
+      <c r="C19" s="3">
+        <v>-83.590000000000003</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>J1</t>
+        </is>
+      </c>
+      <c r="B20" s="3">
+        <v>132.31</v>
+      </c>
+      <c r="C20" s="3">
+        <v>-65</v>
+      </c>
+      <c r="D20" s="3">
         <v>180</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LEH1</t>
+        </is>
+      </c>
+      <c r="B21" s="3">
+        <v>108.61750000000001</v>
+      </c>
+      <c r="C21" s="3">
+        <v>-69.450000000000003</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>OE1</t>
+        </is>
+      </c>
+      <c r="B22" s="3">
+        <v>108.61750000000001</v>
+      </c>
+      <c r="C22" s="3">
+        <v>-76.409999999999997</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>R1</t>
+        </is>
+      </c>
+      <c r="B23" s="3">
+        <v>78.450000000000003</v>
+      </c>
+      <c r="C23" s="3">
+        <v>-86.200000000000003</v>
+      </c>
+      <c r="D23" s="3">
+        <v>-90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="B24" s="3">
+        <v>78.234999999999999</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-79.5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>-90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="B25" s="3">
+        <v>80.25</v>
+      </c>
+      <c r="C25" s="3">
+        <v>-73.129999999999995</v>
+      </c>
+      <c r="D25" s="3">
+        <v>-90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>R4</t>
+        </is>
+      </c>
+      <c r="B26" s="3">
+        <v>112.20999999999999</v>
+      </c>
+      <c r="C26" s="3">
+        <v>-63.770000000000003</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="B27" s="3">
+        <v>111.81</v>
+      </c>
+      <c r="C27" s="3">
+        <v>-70.290000000000006</v>
+      </c>
+      <c r="D27" s="3">
+        <v>-90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="B28" s="3">
+        <v>89.969999999999999</v>
+      </c>
+      <c r="C28" s="3">
+        <v>-84.409999999999997</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>R7</t>
+        </is>
+      </c>
+      <c r="B29" s="3">
+        <v>89.969999999999999</v>
+      </c>
+      <c r="C29" s="3">
+        <v>-81.458568</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>R8</t>
+        </is>
+      </c>
+      <c r="B30" s="3">
+        <v>89.969999999999999</v>
+      </c>
+      <c r="C30" s="3">
+        <v>-78.507140000000007</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="B31" s="3">
+        <v>89.969999999999999</v>
+      </c>
+      <c r="C31" s="3">
+        <v>-75.555712</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="B32" s="3">
+        <v>89.969999999999999</v>
+      </c>
+      <c r="C32" s="3">
+        <v>-72.604284000000007</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>R11</t>
+        </is>
+      </c>
+      <c r="B33" s="3">
+        <v>89.969999999999999</v>
+      </c>
+      <c r="C33" s="3">
+        <v>-69.652856</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="B34" s="3">
+        <v>89.969999999999999</v>
+      </c>
+      <c r="C34" s="3">
+        <v>-66.701428000000007</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>R13</t>
+        </is>
+      </c>
+      <c r="B35" s="3">
+        <v>89.969999999999999</v>
+      </c>
+      <c r="C35" s="3">
+        <v>-63.75</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>R14</t>
+        </is>
+      </c>
+      <c r="B36" s="3">
+        <v>101.935</v>
+      </c>
+      <c r="C36" s="3">
+        <v>-86.530000000000001</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>R15</t>
+        </is>
+      </c>
+      <c r="B37" s="3">
+        <v>101.935</v>
+      </c>
+      <c r="C37" s="3">
+        <v>-83.230000000000004</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>R16</t>
+        </is>
+      </c>
+      <c r="B38" s="3">
+        <v>101.935</v>
+      </c>
+      <c r="C38" s="3">
+        <v>-79.989999999999995</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>R17</t>
+        </is>
+      </c>
+      <c r="B39" s="3">
+        <v>101.935</v>
+      </c>
+      <c r="C39" s="3">
+        <v>-76.790000000000006</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>R18</t>
+        </is>
+      </c>
+      <c r="B40" s="3">
+        <v>101.935</v>
+      </c>
+      <c r="C40" s="3">
+        <v>-73.519999999999996</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>R19</t>
+        </is>
+      </c>
+      <c r="B41" s="3">
+        <v>101.935</v>
+      </c>
+      <c r="C41" s="3">
+        <v>-70.260000000000005</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>R20</t>
+        </is>
+      </c>
+      <c r="B42" s="3">
+        <v>101.935</v>
+      </c>
+      <c r="C42" s="3">
+        <v>-66.989999999999995</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>R21</t>
+        </is>
+      </c>
+      <c r="B43" s="3">
+        <v>101.94</v>
+      </c>
+      <c r="C43" s="3">
+        <v>-63.740000000000002</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>R22</t>
+        </is>
+      </c>
+      <c r="B44" s="3">
+        <v>111.56</v>
+      </c>
+      <c r="C44" s="3">
+        <v>-77.230000000000004</v>
+      </c>
+      <c r="D44" s="3">
+        <v>-90</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>R23</t>
+        </is>
+      </c>
+      <c r="B45" s="3">
+        <v>81.015000000000001</v>
+      </c>
+      <c r="C45" s="3">
+        <v>-68.019999999999996</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>R24</t>
+        </is>
+      </c>
+      <c r="B46" s="3">
+        <v>139.90000000000001</v>
+      </c>
+      <c r="C46" s="3">
+        <v>-85.375</v>
+      </c>
+      <c r="D46" s="3">
+        <v>180</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>R25</t>
+        </is>
+      </c>
+      <c r="B47" s="3">
+        <v>137.34999999999999</v>
+      </c>
+      <c r="C47" s="3">
+        <v>-88.924999999999997</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>RN1</t>
+        </is>
+      </c>
+      <c r="B48" s="3">
+        <v>127.0615</v>
+      </c>
+      <c r="C48" s="3">
+        <v>-86.779810999999995</v>
+      </c>
+      <c r="D48" s="3">
+        <v>180</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>STV1</t>
+        </is>
+      </c>
+      <c r="B49" s="3">
+        <v>77.507499999999993</v>
+      </c>
+      <c r="C49" s="3">
+        <v>-72.280000000000001</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>U1</t>
+        </is>
+      </c>
+      <c r="B50" s="3">
+        <v>93.659999999999997</v>
+      </c>
+      <c r="C50" s="3">
+        <v>-96</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>XCL1</t>
+        </is>
+      </c>
+      <c r="B51" s="3">
+        <v>77.519999999999996</v>
+      </c>
+      <c r="C51" s="3">
+        <v>-68.019999999999996</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>XSTL1</t>
+        </is>
+      </c>
+      <c r="B52" s="3">
+        <v>108.61750000000001</v>
+      </c>
+      <c r="C52" s="3">
+        <v>-63.75</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
         <v>1</v>
       </c>
     </row>
